--- a/MapData/2024-12-05/Images.xlsx
+++ b/MapData/2024-12-05/Images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Haruki\Projects\WEB\SchoolMap\MapData\2024-12-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF19B29-FD86-4F8D-B61A-3E45DFDC8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D098409-CE36-488C-AEA3-CB2C954D1A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -41,15 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>CC3</t>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,6 +98,34 @@
   </si>
   <si>
     <t>straight_course-k0DNpn6R.webp</t>
+  </si>
+  <si>
+    <t>clubroom_building_0_1f-qAB23K19.webp</t>
+  </si>
+  <si>
+    <t>clubroom_building_1-39A51R8u.webp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gate_west_0-7BfkEqJ3.webp</t>
+  </si>
+  <si>
+    <t>gate_west_0-aCc5V363.webp</t>
+  </si>
+  <si>
+    <t>grand-kZRaRnHs.webp</t>
+  </si>
+  <si>
+    <t>handball_court-7mVe6x20.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-1ZftrcP4.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-6G2EaBq6.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-AHGmB7D0.webp</t>
   </si>
 </sst>
 </file>
@@ -432,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -451,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -462,10 +481,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>45631</v>
@@ -476,10 +495,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>45631</v>
@@ -490,10 +509,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>45631</v>
@@ -504,10 +523,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>45631</v>
@@ -518,10 +537,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>45631</v>
@@ -532,10 +551,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>45631</v>
@@ -546,10 +565,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>45631</v>
@@ -560,10 +579,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45631</v>
@@ -574,10 +593,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>45631</v>
@@ -588,10 +607,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>45631</v>
@@ -602,44 +621,170 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>45631</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>45631</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45631</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
